--- a/data/trans_dic/P21D_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.003921602286138397</v>
+        <v>0.003921602286138398</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01117749502970107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.008187057557786216</v>
+        <v>0.008187057557786214</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004776831839456784</v>
+        <v>0.004622310277719716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003589005448899411</v>
+        <v>0.003491266056229692</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02139701264516332</v>
+        <v>0.01997436225735925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02218802712982384</v>
+        <v>0.02453312200582226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01590212105552484</v>
+        <v>0.01589607193191483</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.0006873364819677685</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.009685695371048167</v>
+        <v>0.009685695371048169</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.005246677723459036</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005213018750602384</v>
+        <v>0.005382560833152835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00294033934541221</v>
+        <v>0.002830235631637425</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.003828737580227455</v>
+        <v>0.003539908216136836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01677842297129826</v>
+        <v>0.01766345913564417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009089061430663124</v>
+        <v>0.009213436051351031</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.002023126815237526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.003514317860867042</v>
+        <v>0.003514317860867041</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.000861753060340819</v>
+        <v>0.0008485696065086535</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0103181450155327</v>
+        <v>0.01019060116444763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01051364084103875</v>
+        <v>0.0107198618802386</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.008453013075412181</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.005436008417808818</v>
+        <v>0.005436008417808821</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0007322933660088856</v>
+        <v>0.0007361050187772499</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005267545542718843</v>
+        <v>0.00531052534007493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003501878518161549</v>
+        <v>0.003464933680664708</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005323764580388181</v>
+        <v>0.005405854438625879</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01302157385418687</v>
+        <v>0.01290417159325464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008064807111968579</v>
+        <v>0.008284409707921367</v>
       </c>
     </row>
     <row r="16">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1728</v>
+        <v>1672</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2209</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5427</v>
+        <v>5067</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8028</v>
+        <v>8876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9787</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="8">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5138</v>
+        <v>5305</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5719</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3674</v>
+        <v>3397</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16535</v>
+        <v>17408</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17678</v>
+        <v>17920</v>
       </c>
     </row>
     <row r="12">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7249</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8900</v>
+        <v>8972</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11381</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8307</v>
+        <v>8435</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22001</v>
+        <v>21802</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26210</v>
+        <v>26924</v>
       </c>
     </row>
     <row r="20">
